--- a/Collected_Data.xlsx
+++ b/Collected_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OSU_Edu\High  Performance deep learning\LAB2_GULHANE_RADHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radhagulhane/Documents/GitHub/data-parallelism-distributed-deep-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523A8C2-EEE3-440F-AFB1-9BD632C5D7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26833DEE-7974-7846-B305-9777159800D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4AF99F1B-5F76-4C25-AEC5-18E94CDC1463}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{4AF99F1B-5F76-4C25-AEC5-18E94CDC1463}"/>
   </bookViews>
   <sheets>
     <sheet name="Pytorch_Single Node" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="26">
   <si>
     <t>ResNet-50 using a single node using PyTorch</t>
   </si>
@@ -148,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -226,6 +226,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -269,9 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,10 +292,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -296,11 +304,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,6 +317,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -329,6 +340,444 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Throughput for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>ResNet50 with Single</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> Node</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pytorch_Single Node'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Pytorch_Single Node'!$B$37:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pytorch_Single Node'!$B$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F7E-ED40-8FFF-C23E0F5DB6CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1217959776"/>
+        <c:axId val="1415644672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1217959776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Batch Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1415644672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1415644672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (Images/Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217959776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -789,7 +1238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1308,7 +1757,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1849,7 +2298,548 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Horovod VS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>DDP Throughput ResNet50</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Weak Scaling) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weak Scale'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horovod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Weak Scale'!$A$45:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weak Scale'!$B$45:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7619-9745-A3D7-09785F344CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weak Scale'!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PyTorch distributed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Weak Scale'!$A$45:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weak Scale'!$C$45:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7619-9745-A3D7-09785F344CFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="761454320"/>
+        <c:axId val="761456320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="761454320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761456320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="761456320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (Images/Sec) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761454320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2309,7 +3299,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2770,7 +3760,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3301,6 +4291,538 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Horovod VS DDP Throughput for ResNet50 (Strong Scaling) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong scale'!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horovod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Strong scale'!$A$44:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Strong scale'!$B$44:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35BD-714A-B223-CFCF5C33BAD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong scale'!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PyTorch distributed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Strong scale'!$A$44:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Strong scale'!$C$44:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35BD-714A-B223-CFCF5C33BAD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="772075727"/>
+        <c:axId val="865997776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="772075727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865997776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="865997776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Throughput (Images/Sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772075727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3501,6 +5023,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5566,7 +7208,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5674,11 +7316,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5689,11 +7326,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5725,9 +7357,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6081,7 +7710,1596 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6A147A-3BC9-4546-B73E-4326C7274C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6191,10 +9409,46 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5F8548-0C1B-2562-89B9-195BB463F963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6299,6 +9553,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94139DB1-02AE-2D3B-4759-A5E4D710DDC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6604,35 +9894,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5CF1D-29A5-4728-A34D-2C4633B8E83F}">
-  <dimension ref="B1:Q26"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -6651,16 +9941,16 @@
       <c r="J3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>3</v>
+      <c r="K3" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I4" s="9"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="18">
         <v>128</v>
       </c>
       <c r="C5" t="s">
@@ -6682,8 +9972,8 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -6701,8 +9991,8 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -6720,8 +10010,8 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -6739,8 +10029,8 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -6758,23 +10048,23 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="11">
         <f>AVERAGE(K5:K9)</f>
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I11" s="9"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="18">
         <v>256</v>
       </c>
       <c r="C12" t="s">
@@ -6796,8 +10086,8 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -6815,8 +10105,8 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -6834,8 +10124,8 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
         <v>5</v>
       </c>
@@ -6853,8 +10143,8 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -6864,7 +10154,7 @@
       <c r="E16">
         <v>34.140310999999997</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
@@ -6872,22 +10162,22 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="11">
         <v>2121</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I18" s="9"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="18">
         <v>512</v>
       </c>
       <c r="C19" t="s">
@@ -6909,8 +10199,8 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -6928,8 +10218,8 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -6947,8 +10237,8 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
@@ -6966,8 +10256,8 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>9</v>
       </c>
@@ -6985,24 +10275,92 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="11">
         <v>2238</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="Q26" s="8"/>
     </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>128</v>
+      </c>
+      <c r="C31">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>256</v>
+      </c>
+      <c r="C32">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>512</v>
+      </c>
+      <c r="C33">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>128</v>
+      </c>
+      <c r="C37">
+        <v>256</v>
+      </c>
+      <c r="D37">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>1300</v>
+      </c>
+      <c r="C38">
+        <v>2121</v>
+      </c>
+      <c r="D38">
+        <v>2238</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B19:B23"/>
@@ -7010,12 +10368,10 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I12:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7023,36 +10379,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6913334F-AB38-431E-9637-87EE277CABBA}">
   <dimension ref="A5:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="3"/>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -7078,12 +10434,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7109,23 +10465,23 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>2</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>512</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -7134,10 +10490,10 @@
       <c r="D11" s="1">
         <v>1472</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <v>2</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <v>512</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -7147,17 +10503,17 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>1476</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
@@ -7165,9 +10521,9 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -7175,8 +10531,8 @@
         <f>SUM(D11:D12)</f>
         <v>2948</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
@@ -7185,16 +10541,16 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>4</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="18">
         <v>512</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -7203,10 +10559,10 @@
       <c r="D15" s="1">
         <v>1425</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>4</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <v>512</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -7216,17 +10572,17 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>1424</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
@@ -7234,17 +10590,17 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1">
         <v>1433</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
@@ -7252,17 +10608,17 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>1424</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
@@ -7270,9 +10626,9 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
@@ -7280,8 +10636,8 @@
         <f>SUM(D15:D18)</f>
         <v>5706</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
@@ -7290,19 +10646,19 @@
         <v>5549</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="H20" s="3"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -7316,7 +10672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -7330,7 +10686,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -7344,7 +10700,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -7358,8 +10714,8 @@
         <v>5549</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -7367,62 +10723,62 @@
       </c>
       <c r="C43" s="23"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="17" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
         <v>1</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>1689</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>2076</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
         <v>2</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>2948</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="14">
         <v>3035</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
         <v>4</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="15">
         <v>5706</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="15">
         <v>5549</v>
       </c>
       <c r="D47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="I15:I19"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="I11:I13"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I15:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7434,54 +10790,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3BF7C2-C928-4741-B4D7-82E6C0BEE1DC}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="14.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="3"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -7513,12 +10869,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7550,19 +10906,19 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -7594,7 +10950,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>18</v>
       </c>
@@ -7611,7 +10967,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -7629,12 +10985,12 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -7651,7 +11007,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -7683,7 +11039,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -7700,7 +11056,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>21</v>
       </c>
@@ -7717,7 +11073,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>20</v>
       </c>
@@ -7735,17 +11091,17 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -7755,7 +11111,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -7769,7 +11125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -7783,7 +11139,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -7797,7 +11153,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I23" s="2">
         <v>4</v>
       </c>
@@ -7805,54 +11161,54 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="26"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
         <v>1</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>1657</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>2076</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <v>2</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="17">
         <v>2674</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>2829</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>4</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="17">
         <v>3253</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>3323</v>
       </c>
     </row>
@@ -7877,7 +11233,7 @@
       <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
